--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999925260329983</v>
+        <v>0.9416690226220025</v>
       </c>
       <c r="E3">
-        <v>0.9999925260329983</v>
+        <v>0.9416690226220025</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999913703919362</v>
+        <v>0.999999999963749</v>
       </c>
       <c r="E4">
-        <v>0.9999913703919362</v>
+        <v>0.999999999963749</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.1565385704665588</v>
+        <v>0.04692086619976626</v>
       </c>
       <c r="E5">
-        <v>0.1565385704665588</v>
+        <v>0.04692086619976626</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6.751907629429589E-09</v>
+        <v>1.344660358134791E-12</v>
       </c>
       <c r="E6">
-        <v>6.751907629429589E-09</v>
+        <v>1.344660358134791E-12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999998821</v>
+        <v>0.9999994602630433</v>
       </c>
       <c r="E7">
-        <v>1.179056852151916E-13</v>
+        <v>5.397369566839672E-07</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999999376976</v>
+        <v>0.9999999384216061</v>
       </c>
       <c r="E8">
-        <v>6.230238547288991E-11</v>
+        <v>6.157839393949871E-08</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999999999769</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>2.309263891220326E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9594697705832071</v>
+        <v>0.4625109620470777</v>
       </c>
       <c r="E10">
-        <v>0.04053022941679285</v>
+        <v>0.5374890379529222</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2.220446049250313E-16</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>9.0733642578125</v>
+        <v>10.48520183563232</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
